--- a/biology/Botanique/Arisarum_proboscideum/Arisarum_proboscideum.xlsx
+++ b/biology/Botanique/Arisarum_proboscideum/Arisarum_proboscideum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arisarum proboscideum est une espèce de plantes herbacées de la famille des Araceae. Elle est originaire des bois montueux du sud de l’Italie et de l’Espagne. 
 Cette aracée a une curieuse inflorescence constituée d’un spadice de fleurs minuscules, enfermé dans une spathe en casque, brun foncé. La spathe se termine en forme de queue de souris, ce qui vaut à l'espèce le nom vernaculaire de « plante souris ». La partie supérieure du spadice répand une odeur de champignon, qui attire les moucherons fongueux pollinisateurs.
 			Feuilles
 			Inflorescence
-Cette espèce, qui est rustique, a pour autres noms vernaculaires (en sus de Plante souris) : souris végétale (à ne pas confondre avec le kiwi qui porte aussi ce nom), queue de souris, ou encore, gouet à capuchon[1].
+Cette espèce, qui est rustique, a pour autres noms vernaculaires (en sus de Plante souris) : souris végétale (à ne pas confondre avec le kiwi qui porte aussi ce nom), queue de souris, ou encore, gouet à capuchon.
 </t>
         </is>
       </c>
